--- a/uploads/test.xlsx
+++ b/uploads/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leo/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F9AAF5F8-D69F-8442-940A-25882D4EB9CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED15361D-FEDB-5748-9BAE-FD888E198D5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3080" yWindow="2120" windowWidth="28040" windowHeight="17440" xr2:uid="{821E3D18-53EE-3F49-ACED-58A0260C8EAC}"/>
   </bookViews>
@@ -36,9 +36,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>test</t>
+    <t>PO</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>CurrencyRate</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>testest</t>
   </si>
 </sst>
 </file>
@@ -74,8 +86,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -410,21 +423,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D24281A0-A111-8343-B54B-5906E5D39EA8}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1">
+        <v>45737</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
         <v>0</v>
       </c>
     </row>
